--- a/material/checklist.xlsx
+++ b/material/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsukotominaga/Google Drive/Project/perception-v1.0/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A5CFC8-9A02-B840-B8DE-746848E8EFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03204854-6EDF-EA45-A86F-AD0FE36A7FB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3720" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
   <si>
     <t>SubNr</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Questionnaire</t>
   </si>
   <si>
-    <t>Checklist - 19/10/2020</t>
-  </si>
-  <si>
     <t>2nd Block</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Receipt</t>
+  </si>
+  <si>
+    <t>Checklist - 27/01/2021</t>
   </si>
 </sst>
 </file>
@@ -99,12 +99,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -134,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -151,6 +163,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -483,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -492,190 +512,366 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/material/checklist.xlsx
+++ b/material/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsukotominaga/Google Drive/Project/perception-v1.0/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03204854-6EDF-EA45-A86F-AD0FE36A7FB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402E61F7-39CD-4E44-8FEF-D2F450E6E707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,24 +99,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -146,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -163,14 +151,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +475,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -666,20 +650,20 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
